--- a/内部設計書.xlsx
+++ b/内部設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yokoy\作業\60_アプリ\rubyテスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yokoy\作業\60_アプリ\rubyテスト\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A53147B-E2DF-41D4-8674-A66B75CCCA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD9ABC9-E92D-4D89-9519-A4A79EA75834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A38E174A-B488-4443-AE8F-BE0EA967483C}"/>
+    <workbookView xWindow="4215" yWindow="2070" windowWidth="24585" windowHeight="13530" activeTab="3" xr2:uid="{A38E174A-B488-4443-AE8F-BE0EA967483C}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="89">
   <si>
     <t>HTTPリクエスト</t>
     <phoneticPr fontId="1"/>
@@ -693,6 +693,66 @@
     <rPh sb="33" eb="35">
       <t>シュトク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VIEW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_member_cds_group_member_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_music_members_group_member_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_member_colors_group_color_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_member_positions_group_member_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_cd_musics_group_cd_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_member_cds_group_cd_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_cd_musics_group_music_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_music_members_group_music_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_cd_musics_where_cd_recording_order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_member_cds_for_first_cd_form_21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_member_cds_for_last_cd_form_21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_member_colors_for_last_member</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_member_positions_group_position_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_member_positions_for_last_member</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -784,7 +844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,14 +860,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3920,17 +3983,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>217563</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85119</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>17321</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>236905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE18B06-7C00-E92F-CDC5-410F21724D91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE3B713-2E20-41C3-8E2E-FE41B4398F81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3947,7 +4010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1657350" y="238125"/>
-          <a:ext cx="12095238" cy="4847619"/>
+          <a:ext cx="13828571" cy="9761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4337,7 +4400,7 @@
       <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4361,7 +4424,7 @@
       <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4385,7 +4448,7 @@
       <c r="F4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4409,7 +4472,7 @@
       <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4433,7 +4496,7 @@
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4457,7 +4520,7 @@
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4481,7 +4544,7 @@
       <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4505,7 +4568,7 @@
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4529,7 +4592,7 @@
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4553,7 +4616,7 @@
       <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4577,7 +4640,7 @@
       <c r="F12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4601,7 +4664,7 @@
       <c r="F13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4625,7 +4688,7 @@
       <c r="F14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4649,7 +4712,7 @@
       <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4673,7 +4736,7 @@
       <c r="F16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4702,72 +4765,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5" t="s">
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5" t="s">
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5" t="s">
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5" t="s">
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5" t="s">
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -5780,17 +5843,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5799,13 +5862,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DED113-4B10-4355-920B-DCFD98DA62BD}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
@@ -5866,6 +5929,86 @@
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
